--- a/templates/final_invoice.xlsx
+++ b/templates/final_invoice.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotork-my.sharepoint.com/personal/jeongtaek_bang_rotork_com/Documents/바탕 화면/업무/NOAH ACTUATION/noahAutomation/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{5742954B-E54F-406E-9FAF-63B1680E20A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01EAE69F-2A51-4760-A969-274CC33AB5FD}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{5742954B-E54F-406E-9FAF-63B1680E20A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{906403EC-AFF2-4CBD-A627-36B1EDABA82B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$I$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Table 1'!$13:$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -597,6 +597,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -606,11 +642,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -624,136 +747,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -833,13 +833,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>45982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>243909</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>114113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1169,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1190,15 +1190,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="30.75" customHeight="1">
@@ -1206,12 +1206,12 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
@@ -1228,121 +1228,121 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="14.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="44" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="44" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="72"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="73"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="73"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="74"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="77" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="81" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="82"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="83"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="47" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="67" t="s">
+      <c r="G10" s="43"/>
+      <c r="H10" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="36"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="37"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -1358,12 +1358,12 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1380,10 +1380,10 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="14.1" customHeight="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="17"/>
       <c r="F14" s="16"/>
       <c r="G14" s="18"/>
@@ -1392,10 +1392,10 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="17"/>
       <c r="F15" s="16"/>
       <c r="G15" s="18"/>
@@ -1404,10 +1404,10 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="14.1" customHeight="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="17"/>
       <c r="F16" s="16"/>
       <c r="G16" s="18"/>
@@ -1416,10 +1416,10 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="14.1" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="17"/>
       <c r="F17" s="16"/>
       <c r="G17" s="18"/>
@@ -1428,10 +1428,10 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="14.1" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="17"/>
       <c r="F18" s="16"/>
       <c r="G18" s="18"/>
@@ -1440,10 +1440,10 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="17"/>
       <c r="F19" s="16"/>
       <c r="G19" s="18"/>
@@ -1452,10 +1452,10 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
       <c r="G20" s="23"/>
@@ -1464,12 +1464,12 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="10">
         <f>SUM(E14:E20)</f>
         <v>0</v>
@@ -1488,15 +1488,15 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1">
@@ -1596,36 +1596,36 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A33" s="42" t="s">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A32" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A33" s="83"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -1633,11 +1633,11 @@
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+    <row r="34" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -1646,10 +1646,10 @@
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -1694,65 +1694,80 @@
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" ht="36" customHeight="1">
-      <c r="A40" s="38" t="s">
+    <row r="40" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" ht="36" customHeight="1">
+      <c r="A42" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="39" t="s">
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40" t="s">
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="7"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="F10:F11"/>
+  <mergeCells count="38">
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A21:D21"/>
@@ -1769,17 +1784,25 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F41" r:id="rId1" xr:uid="{DA519E99-AB88-496A-A4F0-AD3EE0BAD2E1}"/>
+    <hyperlink ref="F43" r:id="rId1" xr:uid="{DA519E99-AB88-496A-A4F0-AD3EE0BAD2E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
